--- a/document/테이블명세-국경일목록.xlsx
+++ b/document/테이블명세-국경일목록.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS50520\Documents\workspace\Tiget\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5945214-1E9C-42BB-AC79-9477D7A24795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB41FA8-84D5-4C8B-8989-80173B0CE888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3630" yWindow="6495" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블명세" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="43">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -128,21 +128,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>NOT NULL</t>
-  </si>
-  <si>
-    <t>PRIMARY KEY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>전유영</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>tbl_holiday</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>h_dateName</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -183,23 +172,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>INT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>국경일 목록을 저장할 table</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>국경일목록 table 생성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>국경일목록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySQL 에서 MongoDB 로 DBMS 전환</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MongoDB 형식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_holidays</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -269,7 +266,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -644,19 +641,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -666,7 +650,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -759,9 +743,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1145,7 +1126,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1801,22 +1782,22 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="37" t="s">
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="37"/>
-      <c r="J2" s="39">
+      <c r="I2" s="36"/>
+      <c r="J2" s="38">
         <v>44886</v>
       </c>
-      <c r="K2" s="40"/>
+      <c r="K2" s="39"/>
       <c r="L2" s="30" t="s">
         <v>11</v>
       </c>
@@ -1826,38 +1807,38 @@
         <v>10</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="38"/>
-      <c r="J3" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="42"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="41"/>
       <c r="L3" s="18"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="34"/>
+      <c r="C4" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="33"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -1873,7 +1854,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>16</v>
@@ -1899,20 +1880,18 @@
         <v>1</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>25</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -1924,26 +1903,24 @@
         <v>2</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>25</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
       <c r="L7" s="17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1951,23 +1928,19 @@
         <v>3</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>26</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
@@ -1981,13 +1954,13 @@
         <v>18</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
@@ -2000,12 +1973,12 @@
       <c r="B10" s="8">
         <v>5</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
@@ -2207,13 +2180,13 @@
         <v>1</v>
       </c>
       <c r="C27" s="28">
-        <v>44886</v>
+        <v>44889</v>
       </c>
       <c r="D27" s="29" t="s">
         <v>23</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F27" s="23"/>
       <c r="G27" s="23"/>
@@ -2225,8 +2198,8 @@
     </row>
     <row r="28" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="22"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="29"/>
       <c r="E28" s="23"/>
       <c r="F28" s="23"/>
       <c r="G28" s="23"/>
@@ -2338,7 +2311,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D27" r:id="rId1" xr:uid="{CD28C48B-09D4-458C-B7D9-3289F5F62057}"/>
+    <hyperlink ref="D27" r:id="rId1" xr:uid="{24D8D2F1-250C-489E-AE32-9ECC736AE04D}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -3007,18 +2980,18 @@
         <v>9</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="37" t="s">
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="37"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="40"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="39"/>
       <c r="L2" s="30" t="s">
         <v>11</v>
       </c>
@@ -3028,32 +3001,32 @@
         <v>10</v>
       </c>
       <c r="C3" s="11"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="38" t="s">
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="38"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="42"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="41"/>
       <c r="L3" s="18"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="34"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="33"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">

--- a/document/테이블명세-국경일목록.xlsx
+++ b/document/테이블명세-국경일목록.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS50520\Documents\workspace\Tiget\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB41FA8-84D5-4C8B-8989-80173B0CE888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5945214-1E9C-42BB-AC79-9477D7A24795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3630" yWindow="6495" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블명세" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="44">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -128,10 +128,21 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>NOT NULL</t>
+  </si>
+  <si>
+    <t>PRIMARY KEY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>전유영</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>tbl_holiday</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>h_dateName</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -172,31 +183,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>INT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>국경일 목록을 저장할 table</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>국경일목록 table 생성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>국경일목록</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MySQL 에서 MongoDB 로 DBMS 전환</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MongoDB 형식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_holidays</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -266,7 +269,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -641,6 +644,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -650,7 +666,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -743,6 +759,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1126,7 +1145,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1782,22 +1801,22 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="36" t="s">
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="38">
+      <c r="I2" s="37"/>
+      <c r="J2" s="39">
         <v>44886</v>
       </c>
-      <c r="K2" s="39"/>
+      <c r="K2" s="40"/>
       <c r="L2" s="30" t="s">
         <v>11</v>
       </c>
@@ -1807,38 +1826,38 @@
         <v>10</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="41"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="42"/>
       <c r="L3" s="18"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="33"/>
+      <c r="C4" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="34"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -1854,7 +1873,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>16</v>
@@ -1880,18 +1899,20 @@
         <v>1</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="11"/>
+        <v>40</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="H6" s="11"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -1903,24 +1924,26 @@
         <v>2</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="11"/>
+        <v>30</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
       <c r="L7" s="17" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1928,19 +1951,23 @@
         <v>3</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>28</v>
-      </c>
       <c r="F8" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
+        <v>39</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
@@ -1954,13 +1981,13 @@
         <v>18</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
@@ -1973,12 +2000,12 @@
       <c r="B10" s="8">
         <v>5</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
@@ -2180,13 +2207,13 @@
         <v>1</v>
       </c>
       <c r="C27" s="28">
-        <v>44889</v>
+        <v>44886</v>
       </c>
       <c r="D27" s="29" t="s">
         <v>23</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F27" s="23"/>
       <c r="G27" s="23"/>
@@ -2198,8 +2225,8 @@
     </row>
     <row r="28" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="22"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="29"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
       <c r="E28" s="23"/>
       <c r="F28" s="23"/>
       <c r="G28" s="23"/>
@@ -2311,7 +2338,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D27" r:id="rId1" xr:uid="{24D8D2F1-250C-489E-AE32-9ECC736AE04D}"/>
+    <hyperlink ref="D27" r:id="rId1" xr:uid="{CD28C48B-09D4-458C-B7D9-3289F5F62057}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -2980,18 +3007,18 @@
         <v>9</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="36" t="s">
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="39"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="40"/>
       <c r="L2" s="30" t="s">
         <v>11</v>
       </c>
@@ -3001,32 +3028,32 @@
         <v>10</v>
       </c>
       <c r="C3" s="11"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="37" t="s">
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="41"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="42"/>
       <c r="L3" s="18"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="34"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
